--- a/01_Organisation/05_Bestellungen/SensorenUndMPC555.xlsx
+++ b/01_Organisation/05_Bestellungen/SensorenUndMPC555.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donkey Kong\Documents\GitHub\SysP18_1cv\01_Organisation\05_Bestellungen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F72602-9AC6-4669-830B-279C9BDDBEC5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="6252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SensorenUndMPC555" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -366,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -382,7 +388,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,16 +435,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,17 +723,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -759,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -779,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -799,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -819,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -839,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -859,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -879,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -899,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -919,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>45</v>
       </c>
@@ -939,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -959,7 +980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -979,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
@@ -1019,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1039,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -1059,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
@@ -1079,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -1099,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -1119,107 +1140,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
@@ -1239,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>105</v>
       </c>
@@ -1259,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>109</v>
       </c>
